--- a/SuppXLS/Scen_ELC_CO2BND.xlsx
+++ b/SuppXLS/Scen_ELC_CO2BND.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda_models\KModel_04\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03076AE4-6DC5-44FB-A7C7-CDB80BE1D4E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A299CE2-DEDD-419D-BE39-5994B086FC29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -753,7 +753,7 @@
   <dimension ref="A1:AK33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -862,13 +862,13 @@
       </c>
       <c r="G7" s="2">
         <f>E19*(1-Q7)</f>
-        <v>227.63237979305995</v>
+        <v>796.71332927570995</v>
       </c>
       <c r="N7" t="s">
         <v>20</v>
       </c>
       <c r="Q7" s="4">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.3">
@@ -883,13 +883,13 @@
       </c>
       <c r="G8" s="2">
         <f>E19*(1-Q8)</f>
-        <v>113.81618989652998</v>
+        <v>682.89713937917998</v>
       </c>
       <c r="N8" t="s">
         <v>20</v>
       </c>
       <c r="Q8" s="4">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="R8" s="4"/>
     </row>

--- a/SuppXLS/Scen_ELC_CO2BND.xlsx
+++ b/SuppXLS/Scen_ELC_CO2BND.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda_models\KModel_04\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A299CE2-DEDD-419D-BE39-5994B086FC29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B76FD2E3-581C-4AF1-9304-38C02B4C1283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -98,44 +98,44 @@
     <t>ELCCO2</t>
   </si>
   <si>
+    <t>TimeSlice</t>
+  </si>
+  <si>
+    <t>AllRegions</t>
+  </si>
+  <si>
+    <t>Pset_PD</t>
+  </si>
+  <si>
+    <t>Cset_Set</t>
+  </si>
+  <si>
+    <t>Cset_CD</t>
+  </si>
+  <si>
+    <t>COM_BNDNET</t>
+  </si>
+  <si>
+    <t>UC_Sets: T_E:</t>
+  </si>
+  <si>
+    <t>UC_Sets: R_E: AllRegions</t>
+  </si>
+  <si>
+    <t>KModel4</t>
+  </si>
+  <si>
+    <t>kt</t>
+  </si>
+  <si>
     <t>~TFM_INS</t>
-  </si>
-  <si>
-    <t>TimeSlice</t>
-  </si>
-  <si>
-    <t>AllRegions</t>
-  </si>
-  <si>
-    <t>Pset_PD</t>
-  </si>
-  <si>
-    <t>Cset_Set</t>
-  </si>
-  <si>
-    <t>Cset_CD</t>
-  </si>
-  <si>
-    <t>COM_BNDNET</t>
-  </si>
-  <si>
-    <t>UC_Sets: T_E:</t>
-  </si>
-  <si>
-    <t>UC_Sets: R_E: AllRegions</t>
-  </si>
-  <si>
-    <t>KModel4</t>
-  </si>
-  <si>
-    <t>kt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,6 +179,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF282828"/>
+      <name val="Georgia"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -226,7 +232,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -246,6 +252,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -753,7 +760,7 @@
   <dimension ref="A1:AK33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -782,17 +789,17 @@
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="7"/>
@@ -805,7 +812,7 @@
     </row>
     <row r="6" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>7</v>
@@ -817,7 +824,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G6" s="9" t="s">
         <v>10</v>
@@ -829,7 +836,7 @@
         <v>2</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K6" s="10" t="s">
         <v>0</v>
@@ -838,13 +845,13 @@
         <v>5</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N6" s="10" t="s">
         <v>4</v>
       </c>
       <c r="O6" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q6" s="3" t="s">
         <v>18</v>
@@ -855,7 +862,7 @@
         <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E7">
         <v>2022</v>
@@ -870,13 +877,14 @@
       <c r="Q7" s="4">
         <v>0.3</v>
       </c>
+      <c r="T7" s="13"/>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E8">
         <v>2030</v>
@@ -898,7 +906,7 @@
         <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1002,7 +1010,7 @@
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
         <v>10</v>
@@ -1037,7 +1045,7 @@
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="E21" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>

--- a/SuppXLS/Scen_ELC_CO2BND.xlsx
+++ b/SuppXLS/Scen_ELC_CO2BND.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda_models\KModel_04\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B76FD2E3-581C-4AF1-9304-38C02B4C1283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32172CE4-F08A-4ADF-8FDC-27DB5F9EBB90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5328" yWindow="3720" windowWidth="15336" windowHeight="8040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UC_CO2" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
   <si>
     <t>Pset_CI</t>
   </si>
@@ -757,10 +757,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AK33"/>
+  <dimension ref="A1:AK32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="E3" zoomScale="70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -865,11 +865,11 @@
         <v>26</v>
       </c>
       <c r="E7">
-        <v>2022</v>
+        <v>2030</v>
       </c>
       <c r="G7" s="2">
-        <f>E19*(1-Q7)</f>
-        <v>796.71332927570995</v>
+        <f>E18*(1-Q7)</f>
+        <v>210</v>
       </c>
       <c r="N7" t="s">
         <v>20</v>
@@ -887,17 +887,17 @@
         <v>26</v>
       </c>
       <c r="E8">
-        <v>2030</v>
+        <v>2040</v>
       </c>
       <c r="G8" s="2">
-        <f>E19*(1-Q8)</f>
-        <v>682.89713937917998</v>
+        <f>E18*(1-Q8)</f>
+        <v>120</v>
       </c>
       <c r="N8" t="s">
         <v>20</v>
       </c>
       <c r="Q8" s="4">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="R8" s="4"/>
     </row>
@@ -909,16 +909,35 @@
         <v>26</v>
       </c>
       <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>15</v>
+        <v>2050</v>
+      </c>
+      <c r="G9" s="2">
+        <f>E18*(1-Q9)</f>
+        <v>29.999999999999993</v>
       </c>
       <c r="N9" t="s">
         <v>20</v>
       </c>
+      <c r="Q9" s="4">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>15</v>
+      </c>
+      <c r="N10" t="s">
+        <v>20</v>
+      </c>
       <c r="U10" s="5"/>
       <c r="AB10" s="6"/>
       <c r="AC10" s="7"/>
@@ -966,61 +985,71 @@
       <c r="B17" t="s">
         <v>12</v>
       </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17">
+        <v>2030</v>
+      </c>
+      <c r="F17">
+        <v>2006</v>
+      </c>
+      <c r="G17">
+        <v>2010</v>
+      </c>
+      <c r="H17">
+        <v>2020</v>
+      </c>
+      <c r="I17">
+        <v>2025</v>
+      </c>
+      <c r="J17">
+        <v>2030</v>
+      </c>
+      <c r="K17">
+        <v>2035</v>
+      </c>
+      <c r="L17">
+        <v>2040</v>
+      </c>
+      <c r="M17">
+        <v>2045</v>
+      </c>
+      <c r="N17">
+        <v>2050</v>
+      </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18">
-        <v>2022</v>
-      </c>
-      <c r="F18">
-        <v>2006</v>
-      </c>
-      <c r="G18">
-        <v>2010</v>
-      </c>
-      <c r="H18">
-        <v>2020</v>
-      </c>
-      <c r="I18">
-        <v>2025</v>
-      </c>
-      <c r="J18">
-        <v>2030</v>
-      </c>
-      <c r="K18">
-        <v>2035</v>
-      </c>
-      <c r="L18">
-        <v>2040</v>
-      </c>
-      <c r="M18">
-        <v>2045</v>
-      </c>
-      <c r="N18">
-        <v>2050</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="E18" s="2">
+        <v>300</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>29</v>
       </c>
-      <c r="C19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" s="2">
-        <v>1138.1618989653</v>
-      </c>
+      <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -1032,7 +1061,9 @@
       <c r="N19" s="2"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="E20" s="2"/>
+      <c r="E20" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -1044,9 +1075,7 @@
       <c r="N20" s="2"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="E21" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -1153,110 +1182,98 @@
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" s="2">
+        <f>SUM(E18:E23)</f>
+        <v>300</v>
+      </c>
+      <c r="F31" s="2">
+        <f t="shared" ref="F31:N31" si="0">SUM(F18:F23)</f>
+        <v>0</v>
+      </c>
+      <c r="G31" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H31" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K31" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L31" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M31" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N31" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
         <v>19</v>
       </c>
       <c r="E32" s="2">
-        <f>SUM(E19:E24)</f>
-        <v>1138.1618989653</v>
+        <f>SUM(E24:E29)</f>
+        <v>0</v>
       </c>
       <c r="F32" s="2">
-        <f t="shared" ref="F32:N32" si="0">SUM(F19:F24)</f>
+        <f t="shared" ref="F32:N32" si="1">SUM(F24:F29)</f>
         <v>0</v>
       </c>
       <c r="G32" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H32" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I32" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J32" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K32" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L32" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M32" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N32" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C33" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" t="s">
-        <v>19</v>
-      </c>
-      <c r="E33" s="2">
-        <f>SUM(E25:E30)</f>
-        <v>0</v>
-      </c>
-      <c r="F33" s="2">
-        <f t="shared" ref="F33:N33" si="1">SUM(F25:F30)</f>
-        <v>0</v>
-      </c>
-      <c r="G33" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H33" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I33" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J33" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K33" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L33" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M33" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N33" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
